--- a/big.xlsx
+++ b/big.xlsx
@@ -2277,10 +2277,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2295,6 +2295,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2319,37 +2327,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2365,15 +2343,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2410,6 +2388,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2433,6 +2419,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2442,7 +2435,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2457,7 +2457,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2475,103 +2529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2589,7 +2547,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2601,13 +2589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2619,13 +2601,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2637,7 +2631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2669,23 +2669,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2717,6 +2702,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2740,15 +2740,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2763,151 +2754,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3268,8 +3268,8 @@
   </sheetPr>
   <dimension ref="A1:CY225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BG9" sqref="BG9"/>
+    <sheetView tabSelected="1" topLeftCell="U133" workbookViewId="0">
+      <selection activeCell="AE154" sqref="AE154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -11627,22 +11627,22 @@
         <v>35.7</v>
       </c>
       <c r="AJ29">
-        <v>44</v>
+        <v>35.1</v>
       </c>
       <c r="AK29">
-        <v>43.9</v>
+        <v>35.1</v>
       </c>
       <c r="AL29">
         <v>35.5</v>
       </c>
       <c r="AM29">
-        <v>35.5</v>
+        <v>34.3</v>
       </c>
       <c r="AN29">
         <v>35.5</v>
       </c>
       <c r="AO29">
-        <v>44.4</v>
+        <v>34.7</v>
       </c>
       <c r="AP29">
         <v>35.8</v>
@@ -26119,7 +26119,7 @@
         <v>35.1</v>
       </c>
       <c r="BD78">
-        <v>0</v>
+        <v>32.1</v>
       </c>
       <c r="BE78">
         <v>33.7</v>
@@ -31997,7 +31997,7 @@
         <v>34.5</v>
       </c>
       <c r="AX98">
-        <v>46.2</v>
+        <v>32.6</v>
       </c>
       <c r="AY98">
         <v>37.4</v>
@@ -41421,7 +41421,7 @@
         <v>37.2</v>
       </c>
       <c r="AN130">
-        <v>65.5</v>
+        <v>37.4</v>
       </c>
       <c r="AO130">
         <v>39.1</v>
@@ -42324,7 +42324,7 @@
         <v>35.4</v>
       </c>
       <c r="AV133">
-        <v>53</v>
+        <v>34.6</v>
       </c>
       <c r="AW133">
         <v>35.5</v>
@@ -49039,7 +49039,7 @@
         <v>0</v>
       </c>
       <c r="AD156">
-        <v>47.8</v>
+        <v>32.4</v>
       </c>
       <c r="AE156">
         <v>33.9</v>

--- a/big.xlsx
+++ b/big.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="753">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -1808,6 +1808,9 @@
   </si>
   <si>
     <t>0000PR00148A</t>
+  </si>
+  <si>
+    <t>32.8</t>
   </si>
   <si>
     <t>00001DO00128A0</t>
@@ -2277,9 +2280,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -2297,11 +2300,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2320,22 +2323,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2349,9 +2381,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2365,34 +2411,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2412,20 +2435,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2434,13 +2443,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2475,7 +2478,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2487,145 +2628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2637,7 +2640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2671,6 +2674,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2716,21 +2743,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2754,157 +2766,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3268,8 +3271,8 @@
   </sheetPr>
   <dimension ref="A1:CY225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U133" workbookViewId="0">
-      <selection activeCell="AE154" sqref="AE154"/>
+    <sheetView tabSelected="1" topLeftCell="AC145" workbookViewId="0">
+      <selection activeCell="AI158" sqref="AI158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -7214,7 +7217,7 @@
         <v>34.2</v>
       </c>
       <c r="AH14">
-        <v>37.9</v>
+        <v>33.1</v>
       </c>
       <c r="AI14">
         <v>33.3</v>
@@ -7223,10 +7226,10 @@
         <v>33.3</v>
       </c>
       <c r="AK14">
-        <v>38</v>
+        <v>32.8</v>
       </c>
       <c r="AL14">
-        <v>36.1</v>
+        <v>33</v>
       </c>
       <c r="AM14">
         <v>33.3</v>
@@ -10168,10 +10171,10 @@
         <v>32.8</v>
       </c>
       <c r="AN24">
-        <v>37.4</v>
+        <v>31.7</v>
       </c>
       <c r="AO24">
-        <v>37.4</v>
+        <v>31.7</v>
       </c>
       <c r="AP24">
         <v>32.4</v>
@@ -14560,7 +14563,7 @@
         <v>33.9</v>
       </c>
       <c r="AJ39">
-        <v>36.8</v>
+        <v>33.9</v>
       </c>
       <c r="AK39">
         <v>36.9</v>
@@ -14572,7 +14575,7 @@
         <v>34.6</v>
       </c>
       <c r="AN39">
-        <v>37.3</v>
+        <v>33.7</v>
       </c>
       <c r="AO39">
         <v>37.4</v>
@@ -15137,7 +15140,7 @@
         <v>33.8</v>
       </c>
       <c r="AF41">
-        <v>34.9</v>
+        <v>32.1</v>
       </c>
       <c r="AG41">
         <v>34.9</v>
@@ -15149,10 +15152,10 @@
         <v>31.8</v>
       </c>
       <c r="AJ41">
-        <v>37</v>
+        <v>32.7</v>
       </c>
       <c r="AK41">
-        <v>37.2</v>
+        <v>32.7</v>
       </c>
       <c r="AL41">
         <v>32.6</v>
@@ -15427,7 +15430,7 @@
         <v>1</v>
       </c>
       <c r="AD42">
-        <v>36.9</v>
+        <v>32.8</v>
       </c>
       <c r="AE42">
         <v>33.3</v>
@@ -16025,7 +16028,7 @@
         <v>35.5</v>
       </c>
       <c r="AF44">
-        <v>37</v>
+        <v>33.7</v>
       </c>
       <c r="AG44">
         <v>37</v>
@@ -17206,7 +17209,7 @@
         <v>34.3</v>
       </c>
       <c r="AF48">
-        <v>37.8</v>
+        <v>33.4</v>
       </c>
       <c r="AG48">
         <v>37.8</v>
@@ -17499,7 +17502,7 @@
         <v>32.9</v>
       </c>
       <c r="AF49">
-        <v>33.1</v>
+        <v>31.8</v>
       </c>
       <c r="AG49">
         <v>33.8</v>
@@ -17517,7 +17520,7 @@
         <v>34.5</v>
       </c>
       <c r="AL49">
-        <v>35.4</v>
+        <v>31.7</v>
       </c>
       <c r="AM49">
         <v>33</v>
@@ -19595,10 +19598,10 @@
         <v>34</v>
       </c>
       <c r="AR56">
-        <v>35.5</v>
+        <v>32.2</v>
       </c>
       <c r="AS56">
-        <v>35.5</v>
+        <v>32.2</v>
       </c>
       <c r="AT56">
         <v>32.5</v>
@@ -19870,10 +19873,10 @@
         <v>33.3</v>
       </c>
       <c r="AL57">
-        <v>31.5</v>
+        <v>32.7</v>
       </c>
       <c r="AM57">
-        <v>31.6</v>
+        <v>32.6</v>
       </c>
       <c r="AN57">
         <v>34</v>
@@ -19888,7 +19891,7 @@
         <v>33.5</v>
       </c>
       <c r="AR57">
-        <v>36.6</v>
+        <v>32.7</v>
       </c>
       <c r="AS57">
         <v>33.3</v>
@@ -20444,10 +20447,10 @@
         <v>34.9</v>
       </c>
       <c r="AH59">
-        <v>35.9</v>
+        <v>32.6</v>
       </c>
       <c r="AI59">
-        <v>36</v>
+        <v>32.8</v>
       </c>
       <c r="AJ59">
         <v>33.9</v>
@@ -26651,7 +26654,7 @@
         <v>36.1</v>
       </c>
       <c r="AL80">
-        <v>37.3</v>
+        <v>33.3</v>
       </c>
       <c r="AM80">
         <v>35.5</v>
@@ -28119,10 +28122,10 @@
         <v>33.9</v>
       </c>
       <c r="AJ85">
-        <v>38.6</v>
+        <v>34.6</v>
       </c>
       <c r="AK85">
-        <v>38.7</v>
+        <v>34.5</v>
       </c>
       <c r="AL85">
         <v>34.2</v>
@@ -28430,7 +28433,7 @@
         <v>35.4</v>
       </c>
       <c r="AP86">
-        <v>37</v>
+        <v>33.4</v>
       </c>
       <c r="AQ86">
         <v>33.7</v>
@@ -28439,7 +28442,7 @@
         <v>33.1</v>
       </c>
       <c r="AS86">
-        <v>36.8</v>
+        <v>32.9</v>
       </c>
       <c r="AT86">
         <v>34.9</v>
@@ -31061,7 +31064,7 @@
         <v>35.6</v>
       </c>
       <c r="AH95">
-        <v>36.8</v>
+        <v>33.8</v>
       </c>
       <c r="AI95">
         <v>34.2</v>
@@ -31363,10 +31366,10 @@
         <v>33.6</v>
       </c>
       <c r="AJ96">
-        <v>36.1</v>
+        <v>33.2</v>
       </c>
       <c r="AK96">
-        <v>36.1</v>
+        <v>33.2</v>
       </c>
       <c r="AL96">
         <v>33.2</v>
@@ -31677,7 +31680,7 @@
         <v>34.4</v>
       </c>
       <c r="AP97">
-        <v>37</v>
+        <v>33.7</v>
       </c>
       <c r="AQ97">
         <v>33.4</v>
@@ -31686,7 +31689,7 @@
         <v>33.8</v>
       </c>
       <c r="AS97">
-        <v>37</v>
+        <v>33.7</v>
       </c>
       <c r="AT97">
         <v>33.9</v>
@@ -32257,7 +32260,7 @@
         <v>33.9</v>
       </c>
       <c r="AL99">
-        <v>36.3</v>
+        <v>32.1</v>
       </c>
       <c r="AM99">
         <v>32.5</v>
@@ -36963,7 +36966,7 @@
         <v>35</v>
       </c>
       <c r="AF115">
-        <v>37.9</v>
+        <v>33</v>
       </c>
       <c r="AG115">
         <v>37.8</v>
@@ -36975,7 +36978,7 @@
         <v>34.4</v>
       </c>
       <c r="AJ115">
-        <v>36.4</v>
+        <v>33.3</v>
       </c>
       <c r="AK115">
         <v>36.5</v>
@@ -38739,7 +38742,7 @@
         <v>33.3</v>
       </c>
       <c r="AF121">
-        <v>31.2</v>
+        <v>33</v>
       </c>
       <c r="AG121">
         <v>31.2</v>
@@ -38751,7 +38754,7 @@
         <v>32.8</v>
       </c>
       <c r="AJ121">
-        <v>31</v>
+        <v>32.8</v>
       </c>
       <c r="AK121">
         <v>31</v>
@@ -38763,13 +38766,13 @@
         <v>31.5</v>
       </c>
       <c r="AN121">
-        <v>31.5</v>
+        <v>32.9</v>
       </c>
       <c r="AO121">
         <v>31.5</v>
       </c>
       <c r="AP121">
-        <v>36.5</v>
+        <v>33.1</v>
       </c>
       <c r="AQ121">
         <v>36.6</v>
@@ -38787,7 +38790,7 @@
         <v>33</v>
       </c>
       <c r="AV121">
-        <v>36.3</v>
+        <v>33</v>
       </c>
       <c r="AW121">
         <v>33.3</v>
@@ -38805,7 +38808,7 @@
         <v>36</v>
       </c>
       <c r="BB121">
-        <v>35.7</v>
+        <v>33.3</v>
       </c>
       <c r="BC121">
         <v>34.3</v>
@@ -41409,7 +41412,7 @@
         <v>37.9</v>
       </c>
       <c r="AJ130">
-        <v>45.1</v>
+        <v>36.7</v>
       </c>
       <c r="AK130">
         <v>38.2</v>
@@ -42306,7 +42309,7 @@
         <v>36.7</v>
       </c>
       <c r="AP133">
-        <v>39.2</v>
+        <v>34.4</v>
       </c>
       <c r="AQ133">
         <v>34.8</v>
@@ -47000,19 +47003,19 @@
         <v>33.3</v>
       </c>
       <c r="AL149">
-        <v>36</v>
+        <v>31.2</v>
       </c>
       <c r="AM149">
         <v>31.7</v>
       </c>
       <c r="AN149">
-        <v>31</v>
+        <v>31.4</v>
       </c>
       <c r="AO149">
         <v>30.9</v>
       </c>
       <c r="AP149">
-        <v>34.7</v>
+        <v>31.6</v>
       </c>
       <c r="AQ149">
         <v>34.6</v>
@@ -49347,7 +49350,7 @@
         <v>36</v>
       </c>
       <c r="AH157">
-        <v>36.8</v>
+        <v>34.1</v>
       </c>
       <c r="AI157">
         <v>34.5</v>
@@ -49359,16 +49362,16 @@
         <v>36.9</v>
       </c>
       <c r="AL157">
-        <v>37.1</v>
+        <v>33.4</v>
       </c>
       <c r="AM157">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="AN157">
         <v>33.9</v>
       </c>
       <c r="AO157">
-        <v>37.1</v>
+        <v>33.4</v>
       </c>
       <c r="AP157">
         <v>34.3</v>
@@ -50259,7 +50262,7 @@
         <v>33.8</v>
       </c>
       <c r="AP160">
-        <v>36.6</v>
+        <v>33.3</v>
       </c>
       <c r="AQ160">
         <v>33.2</v>
@@ -50268,7 +50271,7 @@
         <v>33</v>
       </c>
       <c r="AS160">
-        <v>36.5</v>
+        <v>32.8</v>
       </c>
       <c r="AT160">
         <v>33.6</v>
@@ -52603,7 +52606,7 @@
         <v>34.6</v>
       </c>
       <c r="AH168">
-        <v>36.7</v>
+        <v>33</v>
       </c>
       <c r="AI168">
         <v>34.4</v>
@@ -52904,8 +52907,8 @@
       <c r="AI169">
         <v>34.9</v>
       </c>
-      <c r="AJ169">
-        <v>36</v>
+      <c r="AJ169" t="s">
+        <v>598</v>
       </c>
       <c r="AK169">
         <v>34</v>
@@ -53123,7 +53126,7 @@
         <v>127</v>
       </c>
       <c r="E170" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F170" t="s">
         <v>468</v>
@@ -53141,7 +53144,7 @@
         <v>26</v>
       </c>
       <c r="N170" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O170" t="s">
         <v>590</v>
@@ -53419,7 +53422,7 @@
         <v>128</v>
       </c>
       <c r="E171" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F171" t="s">
         <v>136</v>
@@ -53437,7 +53440,7 @@
         <v>58</v>
       </c>
       <c r="N171" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O171" t="s">
         <v>590</v>
@@ -53446,7 +53449,7 @@
         <v>106</v>
       </c>
       <c r="Q171" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="R171" t="s">
         <v>134</v>
@@ -53715,7 +53718,7 @@
         <v>132</v>
       </c>
       <c r="E172" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F172" t="s">
         <v>163</v>
@@ -53733,7 +53736,7 @@
         <v>42</v>
       </c>
       <c r="N172" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O172" t="s">
         <v>168</v>
@@ -54011,7 +54014,7 @@
         <v>134</v>
       </c>
       <c r="E173" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F173" t="s">
         <v>426</v>
@@ -54029,7 +54032,7 @@
         <v>50</v>
       </c>
       <c r="N173" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O173" t="s">
         <v>168</v>
@@ -54307,7 +54310,7 @@
         <v>144</v>
       </c>
       <c r="E174" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F174" t="s">
         <v>287</v>
@@ -54325,10 +54328,10 @@
         <v>24</v>
       </c>
       <c r="N174" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O174" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="P174" t="s">
         <v>106</v>
@@ -54355,7 +54358,7 @@
         <v>139</v>
       </c>
       <c r="Y174" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Z174" t="s">
         <v>125</v>
@@ -54603,10 +54606,10 @@
         <v>148</v>
       </c>
       <c r="E175" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F175" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I175">
         <v>99</v>
@@ -54621,7 +54624,7 @@
         <v>33</v>
       </c>
       <c r="N175" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O175" t="s">
         <v>168</v>
@@ -54899,7 +54902,7 @@
         <v>151</v>
       </c>
       <c r="E176" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F176" t="s">
         <v>149</v>
@@ -54917,10 +54920,10 @@
         <v>53</v>
       </c>
       <c r="N176" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O176" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="P176" t="s">
         <v>106</v>
@@ -54947,7 +54950,7 @@
         <v>139</v>
       </c>
       <c r="Y176" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Z176" t="s">
         <v>125</v>
@@ -55195,7 +55198,7 @@
         <v>158</v>
       </c>
       <c r="E177" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F177" t="s">
         <v>183</v>
@@ -55213,7 +55216,7 @@
         <v>40</v>
       </c>
       <c r="N177" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O177" t="s">
         <v>168</v>
@@ -55237,7 +55240,7 @@
         <v>0</v>
       </c>
       <c r="W177" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="X177" t="s">
         <v>110</v>
@@ -55491,7 +55494,7 @@
         <v>95</v>
       </c>
       <c r="E178" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F178" t="s">
         <v>487</v>
@@ -55509,7 +55512,7 @@
         <v>68</v>
       </c>
       <c r="N178" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O178" t="s">
         <v>105</v>
@@ -55533,7 +55536,7 @@
         <v>110</v>
       </c>
       <c r="Y178" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Z178" t="s">
         <v>125</v>
@@ -55781,7 +55784,7 @@
         <v>130</v>
       </c>
       <c r="E179" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F179" t="s">
         <v>163</v>
@@ -55799,7 +55802,7 @@
         <v>42</v>
       </c>
       <c r="N179" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O179" t="s">
         <v>105</v>
@@ -56071,7 +56074,7 @@
         <v>165</v>
       </c>
       <c r="E180" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F180" t="s">
         <v>132</v>
@@ -56089,13 +56092,13 @@
         <v>65</v>
       </c>
       <c r="N180" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O180" t="s">
         <v>168</v>
       </c>
       <c r="P180" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q180" t="s">
         <v>185</v>
@@ -56107,13 +56110,13 @@
         <v>80</v>
       </c>
       <c r="W180" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="X180" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y180" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Z180" t="s">
         <v>112</v>
@@ -56361,7 +56364,7 @@
         <v>166</v>
       </c>
       <c r="E181" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F181" t="s">
         <v>141</v>
@@ -56379,13 +56382,13 @@
         <v>61</v>
       </c>
       <c r="N181" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O181" t="s">
         <v>168</v>
       </c>
       <c r="P181" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q181" t="s">
         <v>181</v>
@@ -56397,13 +56400,13 @@
         <v>85</v>
       </c>
       <c r="W181" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X181" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y181" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Z181" t="s">
         <v>112</v>
@@ -56651,7 +56654,7 @@
         <v>167</v>
       </c>
       <c r="E182" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F182" t="s">
         <v>323</v>
@@ -56669,13 +56672,13 @@
         <v>36</v>
       </c>
       <c r="N182" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O182" t="s">
         <v>168</v>
       </c>
       <c r="P182" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q182" t="s">
         <v>455</v>
@@ -56687,13 +56690,13 @@
         <v>70</v>
       </c>
       <c r="W182" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="X182" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y182" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="Z182" t="s">
         <v>112</v>
@@ -56941,7 +56944,7 @@
         <v>168</v>
       </c>
       <c r="E183" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F183" t="s">
         <v>576</v>
@@ -56959,13 +56962,13 @@
         <v>32</v>
       </c>
       <c r="N183" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O183" t="s">
         <v>168</v>
       </c>
       <c r="P183" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q183" t="s">
         <v>185</v>
@@ -56977,13 +56980,13 @@
         <v>75</v>
       </c>
       <c r="W183" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X183" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y183" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Z183" t="s">
         <v>112</v>
@@ -57231,7 +57234,7 @@
         <v>169</v>
       </c>
       <c r="E184" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F184" t="s">
         <v>576</v>
@@ -57249,19 +57252,19 @@
         <v>32</v>
       </c>
       <c r="N184" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O184" t="s">
         <v>168</v>
       </c>
       <c r="P184" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q184" t="s">
         <v>185</v>
       </c>
       <c r="R184" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="S184">
         <v>77</v>
@@ -57270,10 +57273,10 @@
         <v>348</v>
       </c>
       <c r="X184" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y184" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="Z184" t="s">
         <v>125</v>
@@ -57521,7 +57524,7 @@
         <v>170</v>
       </c>
       <c r="E185" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F185" t="s">
         <v>192</v>
@@ -57539,31 +57542,31 @@
         <v>38</v>
       </c>
       <c r="N185" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O185" t="s">
         <v>168</v>
       </c>
       <c r="P185" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q185" t="s">
         <v>181</v>
       </c>
       <c r="R185" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="S185">
         <v>80</v>
       </c>
       <c r="W185" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="X185" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y185" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Z185" t="s">
         <v>112</v>
@@ -57811,7 +57814,7 @@
         <v>171</v>
       </c>
       <c r="E186" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F186" t="s">
         <v>396</v>
@@ -57829,13 +57832,13 @@
         <v>45</v>
       </c>
       <c r="N186" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="O186" t="s">
         <v>168</v>
       </c>
       <c r="P186" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q186" t="s">
         <v>455</v>
@@ -57847,13 +57850,13 @@
         <v>72</v>
       </c>
       <c r="W186" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X186" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y186" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Z186" t="s">
         <v>112</v>
@@ -58101,7 +58104,7 @@
         <v>172</v>
       </c>
       <c r="E187" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F187" t="s">
         <v>132</v>
@@ -58119,31 +58122,31 @@
         <v>65</v>
       </c>
       <c r="N187" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O187" t="s">
         <v>168</v>
       </c>
       <c r="P187" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q187" t="s">
         <v>185</v>
       </c>
       <c r="R187" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="S187">
         <v>78</v>
       </c>
       <c r="W187" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X187" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y187" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="Z187" t="s">
         <v>112</v>
@@ -58391,7 +58394,7 @@
         <v>173</v>
       </c>
       <c r="E188" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F188" t="s">
         <v>141</v>
@@ -58409,13 +58412,13 @@
         <v>61</v>
       </c>
       <c r="N188" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O188" t="s">
         <v>168</v>
       </c>
       <c r="P188" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q188" t="s">
         <v>181</v>
@@ -58427,13 +58430,13 @@
         <v>80</v>
       </c>
       <c r="W188" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="X188" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y188" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Z188" t="s">
         <v>112</v>
@@ -58681,7 +58684,7 @@
         <v>175</v>
       </c>
       <c r="E189" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F189" t="s">
         <v>576</v>
@@ -58699,13 +58702,13 @@
         <v>32</v>
       </c>
       <c r="N189" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O189" t="s">
         <v>168</v>
       </c>
       <c r="P189" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q189" t="s">
         <v>181</v>
@@ -58717,13 +58720,13 @@
         <v>72</v>
       </c>
       <c r="W189" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="X189" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y189" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Z189" t="s">
         <v>112</v>
@@ -58971,7 +58974,7 @@
         <v>176</v>
       </c>
       <c r="E190" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F190" t="s">
         <v>576</v>
@@ -58989,31 +58992,31 @@
         <v>32</v>
       </c>
       <c r="N190" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="O190" t="s">
         <v>168</v>
       </c>
       <c r="P190" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q190" t="s">
         <v>185</v>
       </c>
       <c r="R190" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="S190">
         <v>75</v>
       </c>
       <c r="W190" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X190" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y190" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Z190" t="s">
         <v>125</v>
@@ -59261,7 +59264,7 @@
         <v>177</v>
       </c>
       <c r="E191" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F191" t="s">
         <v>192</v>
@@ -59279,13 +59282,13 @@
         <v>38</v>
       </c>
       <c r="N191" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="O191" t="s">
         <v>168</v>
       </c>
       <c r="P191" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q191" t="s">
         <v>455</v>
@@ -59297,13 +59300,13 @@
         <v>78</v>
       </c>
       <c r="W191" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="X191" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y191" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="Z191" t="s">
         <v>112</v>
@@ -59551,7 +59554,7 @@
         <v>178</v>
       </c>
       <c r="E192" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F192" t="s">
         <v>396</v>
@@ -59569,13 +59572,13 @@
         <v>45</v>
       </c>
       <c r="N192" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O192" t="s">
         <v>168</v>
       </c>
       <c r="P192" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q192" t="s">
         <v>455</v>
@@ -59587,13 +59590,13 @@
         <v>70</v>
       </c>
       <c r="W192" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="X192" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y192" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Z192" t="s">
         <v>112</v>
@@ -59841,7 +59844,7 @@
         <v>179</v>
       </c>
       <c r="E193" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F193" t="s">
         <v>132</v>
@@ -59859,13 +59862,13 @@
         <v>65</v>
       </c>
       <c r="N193" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="O193" t="s">
         <v>168</v>
       </c>
       <c r="P193" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q193" t="s">
         <v>455</v>
@@ -59877,13 +59880,13 @@
         <v>75</v>
       </c>
       <c r="W193" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X193" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y193" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Z193" t="s">
         <v>112</v>
@@ -60131,7 +60134,7 @@
         <v>180</v>
       </c>
       <c r="E194" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F194" t="s">
         <v>141</v>
@@ -60149,31 +60152,31 @@
         <v>61</v>
       </c>
       <c r="N194" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O194" t="s">
         <v>168</v>
       </c>
       <c r="P194" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q194" t="s">
         <v>185</v>
       </c>
       <c r="R194" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="S194">
         <v>80</v>
       </c>
       <c r="W194" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="X194" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y194" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Z194" t="s">
         <v>112</v>
@@ -60421,7 +60424,7 @@
         <v>181</v>
       </c>
       <c r="E195" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F195" t="s">
         <v>323</v>
@@ -60439,31 +60442,31 @@
         <v>36</v>
       </c>
       <c r="N195" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O195" t="s">
         <v>168</v>
       </c>
       <c r="P195" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q195" t="s">
         <v>181</v>
       </c>
       <c r="R195" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="S195">
         <v>70</v>
       </c>
       <c r="W195" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="X195" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y195" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Z195" t="s">
         <v>112</v>
@@ -60711,7 +60714,7 @@
         <v>182</v>
       </c>
       <c r="E196" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F196" t="s">
         <v>576</v>
@@ -60729,19 +60732,19 @@
         <v>32</v>
       </c>
       <c r="N196" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O196" t="s">
         <v>168</v>
       </c>
       <c r="P196" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q196" t="s">
         <v>185</v>
       </c>
       <c r="R196" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="S196">
         <v>70</v>
@@ -60750,10 +60753,10 @@
         <v>348</v>
       </c>
       <c r="X196" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y196" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Z196" t="s">
         <v>112</v>
@@ -61001,7 +61004,7 @@
         <v>183</v>
       </c>
       <c r="E197" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F197" t="s">
         <v>576</v>
@@ -61019,13 +61022,13 @@
         <v>32</v>
       </c>
       <c r="N197" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O197" t="s">
         <v>168</v>
       </c>
       <c r="P197" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q197" t="s">
         <v>455</v>
@@ -61037,13 +61040,13 @@
         <v>75</v>
       </c>
       <c r="W197" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="X197" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y197" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Z197" t="s">
         <v>125</v>
@@ -61291,7 +61294,7 @@
         <v>184</v>
       </c>
       <c r="E198" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F198" t="s">
         <v>192</v>
@@ -61309,13 +61312,13 @@
         <v>38</v>
       </c>
       <c r="N198" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O198" t="s">
         <v>168</v>
       </c>
       <c r="P198" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q198" t="s">
         <v>181</v>
@@ -61327,13 +61330,13 @@
         <v>80</v>
       </c>
       <c r="W198" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X198" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y198" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Z198" t="s">
         <v>112</v>
@@ -61581,7 +61584,7 @@
         <v>185</v>
       </c>
       <c r="E199" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F199" t="s">
         <v>396</v>
@@ -61599,13 +61602,13 @@
         <v>45</v>
       </c>
       <c r="N199" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O199" t="s">
         <v>168</v>
       </c>
       <c r="P199" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q199" t="s">
         <v>185</v>
@@ -61617,13 +61620,13 @@
         <v>75</v>
       </c>
       <c r="W199" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X199" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y199" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Z199" t="s">
         <v>112</v>
@@ -61871,7 +61874,7 @@
         <v>186</v>
       </c>
       <c r="E200" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F200" t="s">
         <v>576</v>
@@ -61889,13 +61892,13 @@
         <v>32</v>
       </c>
       <c r="N200" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O200" t="s">
         <v>168</v>
       </c>
       <c r="P200" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Q200" t="s">
         <v>185</v>
@@ -61907,7 +61910,7 @@
         <v>75</v>
       </c>
       <c r="W200" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X200" t="s">
         <v>152</v>
@@ -62158,7 +62161,7 @@
         <v>187</v>
       </c>
       <c r="E201" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F201" t="s">
         <v>328</v>
@@ -62176,13 +62179,13 @@
         <v>46</v>
       </c>
       <c r="N201" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O201" t="s">
         <v>168</v>
       </c>
       <c r="P201" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Q201" t="s">
         <v>181</v>
@@ -62194,7 +62197,7 @@
         <v>85</v>
       </c>
       <c r="W201" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="X201" t="s">
         <v>152</v>
@@ -62445,7 +62448,7 @@
         <v>188</v>
       </c>
       <c r="E202" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F202" t="s">
         <v>206</v>
@@ -62463,13 +62466,13 @@
         <v>69</v>
       </c>
       <c r="N202" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O202" t="s">
         <v>168</v>
       </c>
       <c r="P202" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Q202" t="s">
         <v>455</v>
@@ -62481,7 +62484,7 @@
         <v>80</v>
       </c>
       <c r="W202" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X202" t="s">
         <v>110</v>
@@ -62732,7 +62735,7 @@
         <v>189</v>
       </c>
       <c r="E203" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F203" t="s">
         <v>309</v>
@@ -62750,25 +62753,25 @@
         <v>57</v>
       </c>
       <c r="N203" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O203" t="s">
         <v>168</v>
       </c>
       <c r="P203" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Q203" t="s">
         <v>185</v>
       </c>
       <c r="R203" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="S203">
         <v>80</v>
       </c>
       <c r="W203" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="X203" t="s">
         <v>152</v>
@@ -63019,7 +63022,7 @@
         <v>190</v>
       </c>
       <c r="E204" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F204" t="s">
         <v>121</v>
@@ -63037,13 +63040,13 @@
         <v>59</v>
       </c>
       <c r="N204" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O204" t="s">
         <v>168</v>
       </c>
       <c r="P204" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Q204" t="s">
         <v>185</v>
@@ -63055,7 +63058,7 @@
         <v>75</v>
       </c>
       <c r="W204" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="X204" t="s">
         <v>152</v>
@@ -63306,7 +63309,7 @@
         <v>191</v>
       </c>
       <c r="E205" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F205" t="s">
         <v>328</v>
@@ -63324,25 +63327,25 @@
         <v>46</v>
       </c>
       <c r="N205" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O205" t="s">
         <v>168</v>
       </c>
       <c r="P205" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Q205" t="s">
         <v>455</v>
       </c>
       <c r="R205" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="S205">
         <v>70</v>
       </c>
       <c r="W205" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="X205" t="s">
         <v>152</v>
@@ -63593,7 +63596,7 @@
         <v>192</v>
       </c>
       <c r="E206" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F206" t="s">
         <v>323</v>
@@ -63611,13 +63614,13 @@
         <v>36</v>
       </c>
       <c r="N206" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O206" t="s">
         <v>168</v>
       </c>
       <c r="P206" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Q206" t="s">
         <v>181</v>
@@ -63629,7 +63632,7 @@
         <v>70</v>
       </c>
       <c r="W206" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X206" t="s">
         <v>152</v>
@@ -63880,7 +63883,7 @@
         <v>193</v>
       </c>
       <c r="E207" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F207" t="s">
         <v>359</v>
@@ -63898,25 +63901,25 @@
         <v>37</v>
       </c>
       <c r="N207" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="O207" t="s">
         <v>168</v>
       </c>
       <c r="P207" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Q207" t="s">
         <v>181</v>
       </c>
       <c r="R207" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="S207">
         <v>78</v>
       </c>
       <c r="W207" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="X207" t="s">
         <v>152</v>
@@ -64167,7 +64170,7 @@
         <v>194</v>
       </c>
       <c r="E208" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F208" t="s">
         <v>328</v>
@@ -64185,13 +64188,13 @@
         <v>46</v>
       </c>
       <c r="N208" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O208" t="s">
         <v>168</v>
       </c>
       <c r="P208" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Q208" t="s">
         <v>185</v>
@@ -64203,7 +64206,7 @@
         <v>74</v>
       </c>
       <c r="W208" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X208" t="s">
         <v>152</v>
@@ -64454,7 +64457,7 @@
         <v>195</v>
       </c>
       <c r="E209" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F209" t="s">
         <v>257</v>
@@ -64472,13 +64475,13 @@
         <v>31</v>
       </c>
       <c r="N209" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O209" t="s">
         <v>168</v>
       </c>
       <c r="P209" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Q209" t="s">
         <v>185</v>
@@ -64490,7 +64493,7 @@
         <v>75</v>
       </c>
       <c r="W209" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="X209" t="s">
         <v>152</v>
@@ -64741,7 +64744,7 @@
         <v>196</v>
       </c>
       <c r="E210" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F210" t="s">
         <v>323</v>
@@ -64759,13 +64762,13 @@
         <v>36</v>
       </c>
       <c r="N210" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="O210" t="s">
         <v>168</v>
       </c>
       <c r="P210" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Q210" t="s">
         <v>181</v>
@@ -64777,7 +64780,7 @@
         <v>75</v>
       </c>
       <c r="W210" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X210" t="s">
         <v>152</v>
@@ -65028,7 +65031,7 @@
         <v>197</v>
       </c>
       <c r="E211" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F211" t="s">
         <v>387</v>
@@ -65046,19 +65049,19 @@
         <v>28</v>
       </c>
       <c r="N211" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O211" t="s">
         <v>168</v>
       </c>
       <c r="P211" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Q211" t="s">
         <v>455</v>
       </c>
       <c r="R211" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="S211">
         <v>74</v>
@@ -65315,7 +65318,7 @@
         <v>198</v>
       </c>
       <c r="E212" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F212" t="s">
         <v>290</v>
@@ -65333,13 +65336,13 @@
         <v>43</v>
       </c>
       <c r="N212" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="O212" t="s">
         <v>168</v>
       </c>
       <c r="P212" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Q212" t="s">
         <v>185</v>
@@ -65351,10 +65354,10 @@
         <v>78</v>
       </c>
       <c r="W212" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X212" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Z212" t="s">
         <v>125</v>
@@ -65602,7 +65605,7 @@
         <v>199</v>
       </c>
       <c r="E213" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F213" t="s">
         <v>238</v>
@@ -65620,13 +65623,13 @@
         <v>55</v>
       </c>
       <c r="N213" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O213" t="s">
         <v>168</v>
       </c>
       <c r="P213" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Q213" t="s">
         <v>455</v>
@@ -65638,10 +65641,10 @@
         <v>85</v>
       </c>
       <c r="W213" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="X213" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Z213" t="s">
         <v>112</v>
@@ -65889,7 +65892,7 @@
         <v>200</v>
       </c>
       <c r="E214" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F214" t="s">
         <v>359</v>
@@ -65907,13 +65910,13 @@
         <v>37</v>
       </c>
       <c r="N214" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O214" t="s">
         <v>168</v>
       </c>
       <c r="P214" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Q214" t="s">
         <v>181</v>
@@ -65925,10 +65928,10 @@
         <v>80</v>
       </c>
       <c r="W214" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X214" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Z214" t="s">
         <v>112</v>
@@ -66176,7 +66179,7 @@
         <v>201</v>
       </c>
       <c r="E215" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F215" t="s">
         <v>592</v>
@@ -66194,13 +66197,13 @@
         <v>35</v>
       </c>
       <c r="N215" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O215" t="s">
         <v>168</v>
       </c>
       <c r="P215" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Q215" t="s">
         <v>185</v>
@@ -66212,10 +66215,10 @@
         <v>78</v>
       </c>
       <c r="W215" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="X215" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Z215" t="s">
         <v>112</v>
@@ -66463,7 +66466,7 @@
         <v>202</v>
       </c>
       <c r="E216" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F216" t="s">
         <v>183</v>
@@ -66481,13 +66484,13 @@
         <v>40</v>
       </c>
       <c r="N216" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O216" t="s">
         <v>168</v>
       </c>
       <c r="P216" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Q216" t="s">
         <v>185</v>
@@ -66499,10 +66502,10 @@
         <v>75</v>
       </c>
       <c r="W216" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X216" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Z216" t="s">
         <v>125</v>
@@ -66750,7 +66753,7 @@
         <v>203</v>
       </c>
       <c r="E217" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F217" t="s">
         <v>127</v>
@@ -66768,13 +66771,13 @@
         <v>49</v>
       </c>
       <c r="N217" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="O217" t="s">
         <v>168</v>
       </c>
       <c r="P217" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Q217" t="s">
         <v>185</v>
@@ -66786,10 +66789,10 @@
         <v>70</v>
       </c>
       <c r="W217" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="X217" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Z217" t="s">
         <v>125</v>
@@ -67037,7 +67040,7 @@
         <v>204</v>
       </c>
       <c r="E218" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F218" t="s">
         <v>159</v>
@@ -67055,13 +67058,13 @@
         <v>52</v>
       </c>
       <c r="N218" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O218" t="s">
         <v>168</v>
       </c>
       <c r="P218" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Q218" t="s">
         <v>185</v>
@@ -67073,10 +67076,10 @@
         <v>65</v>
       </c>
       <c r="W218" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X218" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Z218" t="s">
         <v>112</v>
@@ -67324,7 +67327,7 @@
         <v>205</v>
       </c>
       <c r="E219" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F219" t="s">
         <v>468</v>
@@ -67342,13 +67345,13 @@
         <v>26</v>
       </c>
       <c r="N219" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="O219" t="s">
         <v>168</v>
       </c>
       <c r="P219" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Q219" t="s">
         <v>181</v>
@@ -67360,10 +67363,10 @@
         <v>69</v>
       </c>
       <c r="W219" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="X219" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Z219" t="s">
         <v>125</v>
@@ -67611,7 +67614,7 @@
         <v>206</v>
       </c>
       <c r="E220" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F220" t="s">
         <v>241</v>
@@ -67629,13 +67632,13 @@
         <v>39</v>
       </c>
       <c r="N220" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="O220" t="s">
         <v>168</v>
       </c>
       <c r="P220" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Q220" t="s">
         <v>185</v>
@@ -67647,10 +67650,10 @@
         <v>70</v>
       </c>
       <c r="W220" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X220" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Z220" t="s">
         <v>125</v>
@@ -67898,7 +67901,7 @@
         <v>207</v>
       </c>
       <c r="E221" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F221" t="s">
         <v>592</v>
@@ -67916,13 +67919,13 @@
         <v>35</v>
       </c>
       <c r="N221" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="O221" t="s">
         <v>168</v>
       </c>
       <c r="P221" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Q221" t="s">
         <v>185</v>
@@ -67934,10 +67937,10 @@
         <v>70</v>
       </c>
       <c r="W221" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="X221" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Z221" t="s">
         <v>125</v>
@@ -68185,7 +68188,7 @@
         <v>208</v>
       </c>
       <c r="E222" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F222" t="s">
         <v>548</v>
@@ -68203,13 +68206,13 @@
         <v>30</v>
       </c>
       <c r="N222" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O222" t="s">
         <v>168</v>
       </c>
       <c r="P222" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Q222" t="s">
         <v>185</v>
@@ -68221,10 +68224,10 @@
         <v>75</v>
       </c>
       <c r="W222" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X222" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Z222" t="s">
         <v>125</v>
@@ -68472,7 +68475,7 @@
         <v>209</v>
       </c>
       <c r="E223" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F223" t="s">
         <v>254</v>
@@ -68490,13 +68493,13 @@
         <v>51</v>
       </c>
       <c r="N223" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="O223" t="s">
         <v>168</v>
       </c>
       <c r="P223" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="Q223" t="s">
         <v>185</v>
@@ -68508,10 +68511,10 @@
         <v>76</v>
       </c>
       <c r="W223" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="X223" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Z223" t="s">
         <v>112</v>
@@ -68759,7 +68762,7 @@
         <v>210</v>
       </c>
       <c r="E224" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F224" t="s">
         <v>149</v>
@@ -68777,13 +68780,13 @@
         <v>53</v>
       </c>
       <c r="N224" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O224" t="s">
         <v>168</v>
       </c>
       <c r="P224" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="Q224" t="s">
         <v>455</v>
@@ -68795,10 +68798,10 @@
         <v>78</v>
       </c>
       <c r="W224" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X224" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Z224" t="s">
         <v>112</v>
@@ -69046,7 +69049,7 @@
         <v>211</v>
       </c>
       <c r="E225" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F225" t="s">
         <v>323</v>
@@ -69064,13 +69067,13 @@
         <v>36</v>
       </c>
       <c r="N225" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="O225" t="s">
         <v>168</v>
       </c>
       <c r="P225" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="Q225" t="s">
         <v>185</v>
@@ -69082,10 +69085,10 @@
         <v>75</v>
       </c>
       <c r="W225" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="X225" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Z225" t="s">
         <v>112</v>
